--- a/hanoi pdbi results.xlsx
+++ b/hanoi pdbi results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/urielzaed/Documents/AI Search Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FE3A4D-4692-A648-914B-3AEA43DBB654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6024CD-331E-1F4E-967B-157CAB1961AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{F418897E-E758-EE43-A2A2-5476BAC74443}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{F418897E-E758-EE43-A2A2-5476BAC74443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>pdbi</t>
   </si>
@@ -89,34 +89,28 @@
     <t>10+ disks</t>
   </si>
   <si>
-    <t>10,1</t>
-  </si>
-  <si>
-    <t>10,2</t>
-  </si>
-  <si>
-    <t>10,3</t>
-  </si>
-  <si>
-    <t>10,4</t>
-  </si>
-  <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t>10,6</t>
-  </si>
-  <si>
-    <t>10,7</t>
-  </si>
-  <si>
-    <t>10,8</t>
-  </si>
-  <si>
-    <t>10,9</t>
-  </si>
-  <si>
-    <t>10,10</t>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>8,8</t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,221 +553,225 @@
     </row>
     <row r="3" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>36638</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>8438</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1527</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>521</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="2">
+        <v>2174</v>
+      </c>
+      <c r="M6" s="2">
+        <v>7364</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>11539</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>15349</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>548</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>771</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>8777</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>23917</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>482</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>1032</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>7198</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>27953</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>271</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>787</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>9564</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>25162</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>86</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>374</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>5559</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>15814</v>
       </c>
       <c r="E11" s="1"/>
@@ -782,21 +780,21 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1561</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>5242</v>
       </c>
       <c r="E12" s="1"/>
@@ -805,11 +803,11 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -822,11 +820,11 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -839,11 +837,6 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -856,11 +849,6 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>

--- a/hanoi pdbi results.xlsx
+++ b/hanoi pdbi results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/urielzaed/Documents/AI Search Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6024CD-331E-1F4E-967B-157CAB1961AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89469218-6378-4497-9C27-F551CF798ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{F418897E-E758-EE43-A2A2-5476BAC74443}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F418897E-E758-EE43-A2A2-5476BAC74443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
-    <t>pdbi</t>
-  </si>
-  <si>
-    <t>additive</t>
-  </si>
-  <si>
     <t>1,7</t>
   </si>
   <si>
@@ -111,13 +105,19 @@
   </si>
   <si>
     <t>8,8</t>
+  </si>
+  <si>
+    <t>PDBI</t>
+  </si>
+  <si>
+    <t>Additive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +136,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +191,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFE0C76-50B8-1C4B-B189-A5BB97DAD60F}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -539,7 +553,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -550,29 +564,34 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -586,38 +605,40 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>36638</v>
@@ -627,7 +648,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
         <v>1527</v>
@@ -638,7 +659,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" s="2">
         <v>2174</v>
@@ -646,11 +667,12 @@
       <c r="M6" s="2">
         <v>7364</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>11539</v>
@@ -660,7 +682,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>548</v>
@@ -671,15 +693,16 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
         <v>8777</v>
@@ -689,7 +712,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2">
         <v>482</v>
@@ -700,15 +723,16 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
         <v>7198</v>
@@ -718,7 +742,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2">
         <v>271</v>
@@ -729,15 +753,16 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
         <v>9564</v>
@@ -747,7 +772,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2">
         <v>86</v>
@@ -758,15 +783,16 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>5559</v>
@@ -781,15 +807,16 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <v>1561</v>
@@ -804,12 +831,13 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -821,12 +849,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -837,8 +866,12 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -850,7 +883,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -862,7 +895,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -874,7 +907,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -886,7 +919,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -898,7 +931,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -907,7 +940,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -916,7 +949,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -925,7 +958,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -934,7 +967,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -943,7 +976,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -952,7 +985,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -961,7 +994,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -970,7 +1003,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -979,7 +1012,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -988,7 +1021,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -997,7 +1030,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1006,7 +1039,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1015,7 +1048,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1027,7 +1060,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1039,7 +1072,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1051,7 +1084,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1063,7 +1096,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1075,7 +1108,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1087,7 +1120,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>

--- a/hanoi pdbi results.xlsx
+++ b/hanoi pdbi results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/urielzaed/Documents/AI Search Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89469218-6378-4497-9C27-F551CF798ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A052A-F596-984F-B4C0-8526631EC992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F418897E-E758-EE43-A2A2-5476BAC74443}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{F418897E-E758-EE43-A2A2-5476BAC74443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>1,7</t>
   </si>
@@ -80,37 +80,157 @@
     <t>5,1</t>
   </si>
   <si>
-    <t>10+ disks</t>
-  </si>
-  <si>
     <t>8,1</t>
   </si>
   <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>8,4</t>
-  </si>
-  <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t>8,6</t>
-  </si>
-  <si>
-    <t>8,7</t>
-  </si>
-  <si>
-    <t>8,8</t>
-  </si>
-  <si>
     <t>PDBI</t>
   </si>
   <si>
     <t>Additive</t>
+  </si>
+  <si>
+    <t>All-Initial-States</t>
+  </si>
+  <si>
+    <t>Min-Initial-State</t>
+  </si>
+  <si>
+    <t>Min-State-Config</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>4+4 disks</t>
+  </si>
+  <si>
+    <t>00002323</t>
+  </si>
+  <si>
+    <t>11112220</t>
+  </si>
+  <si>
+    <t>00000131</t>
+  </si>
+  <si>
+    <t>00000222</t>
+  </si>
+  <si>
+    <t>11112222</t>
+  </si>
+  <si>
+    <t>8+ disks</t>
+  </si>
+  <si>
+    <t>6+2 disks</t>
+  </si>
+  <si>
+    <t>Expand Nodes</t>
+  </si>
+  <si>
+    <t>Number Of Initial States</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>33333333</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>12033333</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>02013333</t>
+  </si>
+  <si>
+    <t>22113333</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>22110333</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>00012133</t>
+  </si>
+  <si>
+    <t>00022133</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>00013133</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>00022233</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>00022213</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>00012213</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>22211013</t>
+  </si>
+  <si>
+    <t>1848</t>
+  </si>
+  <si>
+    <t>11112002</t>
+  </si>
+  <si>
+    <t>3216</t>
+  </si>
+  <si>
+    <t>11112302</t>
+  </si>
+  <si>
+    <t>3672</t>
+  </si>
+  <si>
+    <t>11110302</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>11113322</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>00001331</t>
+  </si>
+  <si>
+    <t>33000000</t>
   </si>
 </sst>
 </file>
@@ -182,12 +302,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -197,6 +314,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,15 +660,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFE0C76-50B8-1C4B-B189-A5BB97DAD60F}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:M13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -553,7 +685,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -564,78 +696,78 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -659,7 +791,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="2">
         <v>2174</v>
@@ -667,9 +799,9 @@
       <c r="M6" s="2">
         <v>7364</v>
       </c>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -692,14 +824,12 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -722,14 +852,9 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -752,14 +877,9 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -782,14 +902,9 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -806,14 +921,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -830,14 +940,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -848,14 +953,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -866,12 +966,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -883,7 +980,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -895,245 +992,665 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>256</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>33333333</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2">
+        <v>208</v>
+      </c>
+      <c r="E22" s="2">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6">
+        <v>11120333</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2">
+        <v>925</v>
+      </c>
+      <c r="E23" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" s="6">
+        <v>22200133</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>192</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3454</v>
+      </c>
+      <c r="E24" s="2">
+        <v>226</v>
+      </c>
+      <c r="F24" s="6">
+        <v>22231133</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>480</v>
+      </c>
+      <c r="D25" s="2">
+        <v>11404</v>
+      </c>
+      <c r="E25" s="2">
+        <v>471</v>
+      </c>
+      <c r="F25" s="6">
+        <v>22211103</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8">
+        <v>480</v>
+      </c>
+      <c r="D26" s="2">
+        <v>23151</v>
+      </c>
+      <c r="E26" s="2">
+        <v>622</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1056</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44245</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1225</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="2">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1152</v>
+      </c>
+      <c r="D28" s="2">
+        <v>64975</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2761</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8">
+        <v>480</v>
+      </c>
+      <c r="D29" s="2">
+        <v>53693</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2990</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2">
+        <v>52799</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9077</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
+      <c r="C31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="2">
+        <v>25</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2">
+        <v>124</v>
+      </c>
+      <c r="E38" s="2">
+        <v>22</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="2">
+        <v>265</v>
+      </c>
+      <c r="E39" s="2">
+        <v>26</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2">
+        <v>634</v>
+      </c>
+      <c r="E40" s="2">
+        <v>34</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1408</v>
+      </c>
+      <c r="E41" s="2">
+        <v>76</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>6</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2353</v>
+      </c>
+      <c r="E42" s="2">
+        <v>95</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4021</v>
+      </c>
+      <c r="E43" s="2">
+        <v>115</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="2">
+        <v>5747</v>
+      </c>
+      <c r="E44" s="2">
+        <v>149</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>9</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9058</v>
+      </c>
+      <c r="E45" s="2">
+        <v>163</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>10</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="2">
+        <v>13701</v>
+      </c>
+      <c r="E46" s="2">
+        <v>210</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>11</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="2">
+        <v>23883</v>
+      </c>
+      <c r="E47" s="2">
+        <v>432</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>12</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="2">
+        <v>41611</v>
+      </c>
+      <c r="E48" s="2">
+        <v>646</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>13</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="2">
+        <v>54776</v>
+      </c>
+      <c r="E49" s="2">
+        <v>708</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>14</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="2">
+        <v>65064</v>
+      </c>
+      <c r="E50" s="2">
+        <v>851</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>15</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="2">
+        <v>59645</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>16</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="2">
+        <v>57492</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3894</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>17</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="2">
+        <v>50409</v>
+      </c>
+      <c r="E53" s="2">
+        <v>10964</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:F18"/>
+    <mergeCell ref="B32:F33"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="F3:H4"/>
     <mergeCell ref="K3:M4"/>

--- a/hanoi pdbi results.xlsx
+++ b/hanoi pdbi results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/urielzaed/Documents/AI Search Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A052A-F596-984F-B4C0-8526631EC992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B8196-E30B-504F-90D0-00EF743B11B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{F418897E-E758-EE43-A2A2-5476BAC74443}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>1,7</t>
   </si>
@@ -231,6 +231,24 @@
   </si>
   <si>
     <t>33000000</t>
+  </si>
+  <si>
+    <t>22200133</t>
+  </si>
+  <si>
+    <t>22231133</t>
+  </si>
+  <si>
+    <t>00011233</t>
+  </si>
+  <si>
+    <t>00011123</t>
+  </si>
+  <si>
+    <t>configless</t>
+  </si>
+  <si>
+    <t>Number Of Original Configuration</t>
   </si>
 </sst>
 </file>
@@ -275,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -298,11 +316,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,14 +396,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFE0C76-50B8-1C4B-B189-A5BB97DAD60F}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,6 +771,7 @@
     <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22" x14ac:dyDescent="0.2">
@@ -703,40 +804,40 @@
     </row>
     <row r="3" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="22" x14ac:dyDescent="0.2">
@@ -994,13 +1095,13 @@
     </row>
     <row r="17" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1008,11 +1109,11 @@
     </row>
     <row r="18" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1022,10 +1123,10 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1059,7 +1160,7 @@
       <c r="B21" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="2">
         <v>256</v>
       </c>
       <c r="D21" s="2">
@@ -1068,7 +1169,7 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>33333333</v>
       </c>
       <c r="G21" s="1"/>
@@ -1081,7 +1182,7 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="2">
         <v>48</v>
       </c>
       <c r="D22" s="2">
@@ -1090,7 +1191,7 @@
       <c r="E22" s="2">
         <v>24</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>11120333</v>
       </c>
       <c r="G22" s="1"/>
@@ -1103,7 +1204,7 @@
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="2">
         <v>96</v>
       </c>
       <c r="D23" s="2">
@@ -1112,20 +1213,17 @@
       <c r="E23" s="2">
         <v>80</v>
       </c>
-      <c r="F23" s="6">
-        <v>22200133</v>
+      <c r="F23" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="2">
         <v>192</v>
       </c>
       <c r="D24" s="2">
@@ -1134,20 +1232,17 @@
       <c r="E24" s="2">
         <v>226</v>
       </c>
-      <c r="F24" s="6">
-        <v>22231133</v>
+      <c r="F24" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="2">
         <v>480</v>
       </c>
       <c r="D25" s="2">
@@ -1156,18 +1251,17 @@
       <c r="E25" s="2">
         <v>471</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>22211103</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="2">
         <v>480</v>
       </c>
       <c r="D26" s="2">
@@ -1176,18 +1270,17 @@
       <c r="E26" s="2">
         <v>622</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="2">
         <v>1056</v>
       </c>
       <c r="D27" s="2">
@@ -1196,18 +1289,17 @@
       <c r="E27" s="2">
         <v>1225</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="2">
         <v>1152</v>
       </c>
       <c r="D28" s="2">
@@ -1216,18 +1308,17 @@
       <c r="E28" s="2">
         <v>2761</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="2">
         <v>480</v>
       </c>
       <c r="D29" s="2">
@@ -1236,18 +1327,17 @@
       <c r="E29" s="2">
         <v>2990</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="2">
         <v>96</v>
       </c>
       <c r="D30" s="2">
@@ -1256,404 +1346,663 @@
       <c r="E30" s="2">
         <v>9077</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="22" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="B34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="2">
-        <v>25</v>
-      </c>
-      <c r="E37" s="2">
-        <v>6</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="2">
-        <v>2</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
       </c>
       <c r="D38" s="2">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>22</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>33333333</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2">
+        <v>60</v>
+      </c>
+      <c r="E39" s="2">
+        <v>24</v>
+      </c>
+      <c r="F39" s="5">
+        <v>11120333</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" ref="G39:G46" si="0">C39/4</f>
         <v>3</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="2">
-        <v>265</v>
-      </c>
-      <c r="E39" s="2">
-        <v>26</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2">
-        <v>4</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>24</v>
       </c>
       <c r="D40" s="2">
-        <v>634</v>
+        <v>302</v>
       </c>
       <c r="E40" s="2">
-        <v>34</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
       <c r="B41" s="2">
-        <v>5</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="C41" s="2">
+        <v>48</v>
       </c>
       <c r="D41" s="2">
-        <v>1408</v>
+        <v>1691</v>
       </c>
       <c r="E41" s="2">
-        <v>76</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
-        <v>6</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>120</v>
       </c>
       <c r="D42" s="2">
-        <v>2353</v>
+        <v>7484</v>
       </c>
       <c r="E42" s="2">
-        <v>95</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>42</v>
+        <v>471</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
-        <v>7</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>120</v>
       </c>
       <c r="D43" s="2">
-        <v>4021</v>
+        <v>17247</v>
       </c>
       <c r="E43" s="2">
-        <v>115</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>45</v>
+        <v>622</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="C44" s="2">
+        <v>264</v>
       </c>
       <c r="D44" s="2">
-        <v>5747</v>
+        <v>37711</v>
       </c>
       <c r="E44" s="2">
-        <v>149</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>47</v>
+        <v>1225</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
-        <v>9</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>288</v>
       </c>
       <c r="D45" s="2">
-        <v>9058</v>
+        <v>59109</v>
       </c>
       <c r="E45" s="2">
-        <v>163</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>49</v>
+        <v>2761</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
-        <v>10</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="C46" s="2">
+        <v>120</v>
       </c>
       <c r="D46" s="2">
-        <v>13701</v>
+        <v>48328</v>
       </c>
       <c r="E46" s="2">
-        <v>210</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>51</v>
+        <v>2990</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2">
+        <v>51037</v>
+      </c>
+      <c r="E47" s="2">
+        <v>9077</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="5">
+        <f>C47/4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="2">
+        <v>25</v>
+      </c>
+      <c r="E66" s="2">
+        <v>6</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="2">
+        <v>124</v>
+      </c>
+      <c r="E67" s="2">
+        <v>22</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="2">
+        <v>265</v>
+      </c>
+      <c r="E68" s="2">
+        <v>26</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <v>4</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="2">
+        <v>634</v>
+      </c>
+      <c r="E69" s="2">
+        <v>34</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <v>5</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1408</v>
+      </c>
+      <c r="E70" s="2">
+        <v>76</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>6</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2353</v>
+      </c>
+      <c r="E71" s="2">
+        <v>95</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <v>7</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4021</v>
+      </c>
+      <c r="E72" s="2">
+        <v>115</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>8</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5747</v>
+      </c>
+      <c r="E73" s="2">
+        <v>149</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>9</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="2">
+        <v>9058</v>
+      </c>
+      <c r="E74" s="2">
+        <v>163</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <v>10</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="2">
+        <v>13701</v>
+      </c>
+      <c r="E75" s="2">
+        <v>210</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
         <v>11</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D76" s="2">
         <v>23883</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E76" s="2">
         <v>432</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F76" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="22" x14ac:dyDescent="0.2">
-      <c r="B48" s="2">
+    <row r="77" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
         <v>12</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D77" s="2">
         <v>41611</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E77" s="2">
         <v>646</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F77" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="B49" s="2">
+    <row r="78" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
         <v>13</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D78" s="2">
         <v>54776</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E78" s="2">
         <v>708</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F78" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="B50" s="2">
+    <row r="79" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
         <v>14</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D79" s="2">
         <v>65064</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E79" s="2">
         <v>851</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F79" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="B51" s="2">
+    <row r="80" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
         <v>15</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D80" s="2">
         <v>59645</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E80" s="2">
         <v>1100</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F80" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="B52" s="2">
+    <row r="81" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
         <v>16</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D81" s="2">
         <v>57492</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E81" s="2">
         <v>3894</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F81" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="B53" s="2">
+    <row r="82" spans="2:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
         <v>17</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D82" s="2">
         <v>50409</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E82" s="2">
         <v>10964</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F82" s="5" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D34:E34"/>
+  <mergeCells count="9">
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B17:F18"/>
-    <mergeCell ref="B32:F33"/>
+    <mergeCell ref="B61:F62"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="F3:H4"/>
-    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B34:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
